--- a/documents/plan.xlsx
+++ b/documents/plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen yibing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen yibing\Documents\GitHub\NLP_proj1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A35A9-2475-4B67-B655-669C0BBA4DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B7601-DC4A-407F-AAC8-391A75DEFA6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,16 +193,16 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,9 +544,9 @@
         <v>20</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -590,9 +590,15 @@
       <c r="G4" s="10">
         <v>43876</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -615,9 +621,9 @@
       <c r="G5" s="10">
         <v>43876</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -629,6 +635,9 @@
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -639,6 +648,9 @@
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
@@ -649,6 +661,9 @@
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -659,6 +674,9 @@
       </c>
       <c r="E9" s="9"/>
       <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
@@ -671,6 +689,9 @@
         <v>29</v>
       </c>
       <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
@@ -684,6 +705,9 @@
         <v>43882</v>
       </c>
       <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1" t="s">
@@ -694,6 +718,9 @@
         <v>21</v>
       </c>
       <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9">
@@ -746,7 +773,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -758,7 +785,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -770,7 +797,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -782,8 +809,11 @@
         <v>43889</v>
       </c>
       <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
@@ -792,8 +822,11 @@
         <v>22</v>
       </c>
       <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
@@ -801,8 +834,11 @@
         <v>29</v>
       </c>
       <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
@@ -811,8 +847,11 @@
         <v>43896</v>
       </c>
       <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -822,7 +861,7 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="9" t="s">
         <v>19</v>
       </c>
